--- a/HopeMDM/海外客户6460-系列切换/新建整合方案/0222.xlsx
+++ b/HopeMDM/海外客户6460-系列切换/新建整合方案/0222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="业务编码" sheetId="1" r:id="rId1"/>
@@ -2242,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7714,13 +7714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="34.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" s="10" customFormat="1" x14ac:dyDescent="0.15">
